--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3077062.147114583</v>
+        <v>3181295.855508032</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8307376.220293171</v>
+        <v>8316289.111544778</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>201.7472219657274</v>
       </c>
       <c r="X2" t="n">
-        <v>329.7760087079241</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>71.67037196991754</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>46.21237518143252</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814486</v>
+        <v>274.3393327866104</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>94.99627916923114</v>
+        <v>19.36824379237575</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>184.1481152416521</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>88.01624809068292</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>83.4510183951442</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>85.47654389282634</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,13 +1426,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>31.26260713376563</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172.3494546525243</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>133.1319933510085</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>73.97774435452045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>137.9385224935183</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>206.7582264966179</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833814</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>59.00369384633011</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>140.7158229532352</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>112.1382188876854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.1838954824118</v>
+        <v>101.9154861872836</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3241,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>271.3147947236899</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3478,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>139.1886739667892</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.527197914137</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>43.73846614325537</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>96.78074638267616</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176919</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176919</v>
+        <v>2025.109406839797</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>2025.109406839797</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1634.970074863985</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.7622949738584</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="C4" t="n">
-        <v>583.8261120459515</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="D4" t="n">
-        <v>433.7094726336157</v>
+        <v>709.4543573264536</v>
       </c>
       <c r="E4" t="n">
-        <v>285.7963790512226</v>
+        <v>561.5412637440605</v>
       </c>
       <c r="F4" t="n">
-        <v>138.9064315533123</v>
+        <v>414.6513162461501</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>246.6648515544287</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>97.92595341793495</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845646</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.4107598040981</v>
+        <v>859.5709967387894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136267</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2798542473295</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1741.508253301343</v>
+        <v>1907.730665469931</v>
       </c>
       <c r="T7" t="n">
-        <v>1741.508253301343</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="U7" t="n">
-        <v>1452.405386426986</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V7" t="n">
-        <v>1197.720898221099</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W7" t="n">
-        <v>1197.720898221099</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X7" t="n">
-        <v>1197.720898221099</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.9283190775692</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2823.329208306698</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2823.329208306698</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2470.560553036583</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="X8" t="n">
-        <v>2097.094794775503</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.955462799692</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2237.57989238419</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>2153.285934409297</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>2003.169294996962</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>1855.256201414568</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>1708.366253916658</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>2754.986613319168</v>
+        <v>1840.954604762406</v>
       </c>
       <c r="V10" t="n">
-        <v>2754.986613319168</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W10" t="n">
-        <v>2465.569443282207</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X10" t="n">
-        <v>2237.57989238419</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y10" t="n">
-        <v>2237.57989238419</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5078,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5270,34 +5272,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2372.238089282765</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2152.636624305706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1863.561397649904</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1608.876909444017</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1319.459739407057</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5732,52 +5734,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687896</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5899,13 +5901,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,22 +5934,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172274</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X22" t="n">
         <v>1501.108204237296</v>
@@ -5975,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6181,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2517.442480416598</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2517.442480416598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6661,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,16 +6688,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6889,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6953,31 +6955,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1836.866460342034</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.866460342034</v>
+        <v>3791.319359123406</v>
       </c>
       <c r="W37" t="n">
-        <v>1547.449290305074</v>
+        <v>3791.319359123406</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407056</v>
+        <v>3563.329808225389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263526</v>
+        <v>3342.537229081859</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7181,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,7 +7201,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,22 +7247,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7312,22 +7314,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7394,10 +7396,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,28 +7408,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131744</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>3997.308687575531</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>114.1584408891656</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.482525529412982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>107.0485416471241</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>80.64613085857653</v>
       </c>
     </row>
     <row r="20">
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>79.42624789262624</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393071</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>193.1339494774979</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>7.89965006497718</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>61.40075786968296</v>
+        <v>116.6691671648112</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>14.86967966555426</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>146.9958004224549</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>112.610445409691</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25792,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>137.2878198583892</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>70.46607471595168</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>727560.7081064329</v>
+        <v>736473.5993580391</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>715402.4342039402</v>
+        <v>715402.4342039403</v>
       </c>
     </row>
     <row r="8">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>715402.4342039402</v>
+        <v>715402.4342039403</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287555</v>
@@ -26326,31 +26328,31 @@
         <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.1790931201</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312012</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768872</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26448,7 +26450,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768948</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26457,7 +26459,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-807401.3167508584</v>
+        <v>-627208.4177917384</v>
       </c>
       <c r="C6" t="n">
+        <v>317904.6873646288</v>
+      </c>
+      <c r="D6" t="n">
         <v>521343.4289767346</v>
-      </c>
-      <c r="D6" t="n">
-        <v>521343.4289767345</v>
       </c>
       <c r="E6" t="n">
         <v>269771.1387757243</v>
@@ -26534,34 +26536,34 @@
         <v>595183.6005830796</v>
       </c>
       <c r="G6" t="n">
-        <v>595183.6005830794</v>
+        <v>595183.6005830796</v>
       </c>
       <c r="H6" t="n">
-        <v>595183.6005830793</v>
+        <v>595183.6005830797</v>
       </c>
       <c r="I6" t="n">
-        <v>595183.6005830793</v>
+        <v>595183.6005830792</v>
       </c>
       <c r="J6" t="n">
-        <v>377652.3981858019</v>
+        <v>427578.422773097</v>
       </c>
       <c r="K6" t="n">
-        <v>595183.6005830796</v>
+        <v>546073.5078770252</v>
       </c>
       <c r="L6" t="n">
         <v>595183.6005830796</v>
       </c>
       <c r="M6" t="n">
-        <v>510128.5726475677</v>
+        <v>510128.5726475675</v>
       </c>
       <c r="N6" t="n">
-        <v>595183.600583079</v>
+        <v>595183.6005830796</v>
       </c>
       <c r="O6" t="n">
+        <v>595183.6005830793</v>
+      </c>
+      <c r="P6" t="n">
         <v>595183.6005830797</v>
-      </c>
-      <c r="P6" t="n">
-        <v>595183.6005830796</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>147.4937467516856</v>
       </c>
       <c r="X2" t="n">
-        <v>39.95509197054497</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.35543628911068</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>58.58422002246806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803241</v>
+        <v>95.39176789185865</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>94.77274616221075</v>
+        <v>170.4007815390661</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>66.84705671724987</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>261.2247206267301</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>83.79580270348363</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>200.7352943127866</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,7 +31849,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,7 +31858,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32257,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32312,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,28 +32551,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32789,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,13 +33031,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,10 +33268,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>175.960367665998</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33424,7 +33426,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,7 +33745,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>528.7932908500043</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>577.7447198439388</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>397.6543049213403</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,7 +35506,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>372.0991318096486</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.9785935799765</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,7 +37393,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>386.659256927986</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>393.2623022991504</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>263.67989750701</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3181295.855508032</v>
+        <v>3177241.729748653</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8316289.111544778</v>
+        <v>8316289.111544777</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>298.1365707155601</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>201.7472219657274</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>66.40055121331473</v>
       </c>
       <c r="I4" t="n">
-        <v>46.21237518143252</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.84399365306177</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>274.3393327866104</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>19.36824379237575</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>273.0529551528105</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>88.01624809068292</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>123.9970795207749</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>85.47654389282634</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>174.1401868743384</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1319933510085</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.9385224935183</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V25" t="n">
-        <v>59.00369384633011</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>140.7158229532352</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.9154861872836</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>271.3147947236899</v>
+        <v>140.575894358866</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>139.527197914137</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>43.73846614325537</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>96.78074638267616</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716112</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>352.3948377958416</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>2025.109406839797</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>2025.109406839797</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y2" t="n">
-        <v>1634.970074863985</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919906</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>859.5709967387894</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>859.5709967387894</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D4" t="n">
-        <v>709.4543573264536</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E4" t="n">
-        <v>561.5412637440605</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F4" t="n">
-        <v>414.6513162461501</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G4" t="n">
-        <v>246.6648515544287</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H4" t="n">
-        <v>97.92595341793495</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>859.5709967387894</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>859.5709967387894</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>859.5709967387894</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4567,7 +4567,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>2048.39542574861</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.4317969248226</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1907.730665469931</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1685.964050039457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1685.964050039457</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1431.27956183357</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1141.86239179661</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>913.8728408985925</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>693.0802617550623</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>353.3552283577025</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>342.3231822431031</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>3126.409852034566</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>730.1075967497939</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>582.1945031674007</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>435.3045556694904</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1840.954604762406</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1586.270116556519</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.852946519558</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.863395621541</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1965.53275017731</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2517.442480416597</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416597</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650331</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>766.1780053015053</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1628.786163100837</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1339.368993063877</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1111.379442165859</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>923.4916164683283</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>754.5554335404214</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.7012443408906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>813.3497091711304</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>783.5579673960132</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C34" t="n">
-        <v>614.6217844681063</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1703.405732304761</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V34" t="n">
-        <v>1703.405732304761</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.9885622678</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.999011369783</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.2064322262529</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6967,13 +6967,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3791.319359123406</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3791.319359123406</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3563.329808225389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7314,16 +7314,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,31 +7405,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>719.5738700011939</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>550.637687073287</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2402.78281474869</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1894.106123115829</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1639.421634909942</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1350.004464872981</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1122.014913974964</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.2223348314336</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>193.3273467878345</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>43.26526345294988</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>13.30196929556064</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.64613085857653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V25" t="n">
-        <v>193.1339494774979</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>7.89965006497718</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>14.86967966555426</v>
+        <v>145.6085800303781</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>112.610445409691</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>137.2878198583892</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>70.46607471595168</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715402.4342039402</v>
+        <v>715402.4342039401</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312481</v>
@@ -26328,22 +26328,22 @@
         <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.274728755</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287554</v>
@@ -26352,10 +26352,10 @@
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605447</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312024</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26441,7 +26441,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768861</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26450,13 +26450,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768936</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627208.4177917384</v>
+        <v>-627208.4177917385</v>
       </c>
       <c r="C6" t="n">
-        <v>317904.6873646288</v>
+        <v>317904.6873646287</v>
       </c>
       <c r="D6" t="n">
         <v>521343.4289767346</v>
       </c>
       <c r="E6" t="n">
-        <v>269771.1387757243</v>
+        <v>269423.7595213675</v>
       </c>
       <c r="F6" t="n">
-        <v>595183.6005830796</v>
+        <v>594836.2213287224</v>
       </c>
       <c r="G6" t="n">
-        <v>595183.6005830796</v>
+        <v>594836.2213287224</v>
       </c>
       <c r="H6" t="n">
-        <v>595183.6005830797</v>
+        <v>594836.2213287225</v>
       </c>
       <c r="I6" t="n">
-        <v>595183.6005830792</v>
+        <v>594836.2213287225</v>
       </c>
       <c r="J6" t="n">
-        <v>427578.422773097</v>
+        <v>427231.0435187399</v>
       </c>
       <c r="K6" t="n">
-        <v>546073.5078770252</v>
+        <v>545726.1286226676</v>
       </c>
       <c r="L6" t="n">
-        <v>595183.6005830796</v>
+        <v>594836.2213287225</v>
       </c>
       <c r="M6" t="n">
-        <v>510128.5726475675</v>
+        <v>509781.1933932106</v>
       </c>
       <c r="N6" t="n">
-        <v>595183.6005830796</v>
+        <v>594836.2213287227</v>
       </c>
       <c r="O6" t="n">
-        <v>595183.6005830793</v>
+        <v>594836.2213287227</v>
       </c>
       <c r="P6" t="n">
-        <v>595183.6005830797</v>
+        <v>594836.2213287225</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>113.4111320573938</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>147.4937467516856</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>80.85095794181412</v>
       </c>
       <c r="I4" t="n">
-        <v>58.58422002246806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>331.8898480104188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>95.39176789185865</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>170.4007815390661</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>21.55480923451</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>261.2247206267301</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>42.02872873825328</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>200.7352943127866</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-8.441247700829989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>8.44124770082999e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>175.9603676659989</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32548,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,22 +33031,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33420,13 +33420,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,37 +34447,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>560.258679069875</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>35.97859357997743</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>485.5616452121058</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3177241.729748653</v>
+        <v>3179002.260051439</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>298.1365707155601</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>63.27320466111824</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>66.40055121331473</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>144.6749589756779</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.84399365306177</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>61.0306888101199</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>62.09581973348946</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>62.09581973348902</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>280.1791546307662</v>
       </c>
       <c r="H8" t="n">
-        <v>273.0529551528105</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>123.9970795207749</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>46.90342393179392</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>174.1401868743384</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>178.279871084294</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>140.575894358866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.799772605716112</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.3028554854568</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="C2" t="n">
-        <v>359.3403385450451</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="D2" t="n">
-        <v>359.3403385450451</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E2" t="n">
-        <v>359.3403385450451</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>352.3948377958416</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
         <v>51.2467865680031</v>
@@ -4330,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2498.427000459631</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2289.681359065456</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2289.681359065456</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1958.618471721885</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>1605.849816451771</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.04202752539</v>
+        <v>1232.384058190691</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>842.2447262148796</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4412,22 +4412,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C4" t="n">
-        <v>837.0793422748035</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624677</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800746</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821642</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1731970904428</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1387.726391392425</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1387.726391392425</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1387.726391392425</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1387.726391392425</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>1387.726391392425</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>1159.736840494407</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>938.9442613508774</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>170.1561756069772</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4567,22 +4567,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629259</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1864.571497852645</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1012.316163281154</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>654.0504646744037</v>
       </c>
       <c r="E8" t="n">
-        <v>764.3411331473101</v>
+        <v>654.0504646744037</v>
       </c>
       <c r="F8" t="n">
-        <v>353.3552283577025</v>
+        <v>647.1049639252002</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3231822431031</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2158.017852261499</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>880.2242361621296</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
-        <v>880.2242361621296</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>730.1075967497939</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>582.1945031674007</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>435.3045556694904</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4959,19 +4959,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1879.917352197791</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1688.231468024618</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1466.464852594144</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1177.361985719788</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.2242361621296</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961522</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.53275017731</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2517.442480416597</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2517.442480416597</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.5558870561822</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>388.6197041282753</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1477.40365196493</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.986481927969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X13" t="n">
-        <v>959.9969310299521</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.2043518864219</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5360,16 +5360,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5597,16 +5597,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5840,13 +5840,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,49 +5989,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6651,7 +6651,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6922,10 +6922,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075822</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>193.3273467878345</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>43.26526345294988</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>40.30478226780076</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>34.97276993489191</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856555</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715402.4342039401</v>
+        <v>715402.4342039403</v>
       </c>
     </row>
     <row r="6">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.274728755</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287555</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>203438.7416121058</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605447</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312026</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26441,7 +26441,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768861</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26456,7 +26456,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768936</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627208.4177917385</v>
+        <v>-627208.4177917379</v>
       </c>
       <c r="C6" t="n">
         <v>317904.6873646287</v>
       </c>
       <c r="D6" t="n">
-        <v>521343.4289767346</v>
+        <v>521343.4289767344</v>
       </c>
       <c r="E6" t="n">
-        <v>269423.7595213675</v>
+        <v>269736.4008502882</v>
       </c>
       <c r="F6" t="n">
-        <v>594836.2213287224</v>
+        <v>595148.8626576441</v>
       </c>
       <c r="G6" t="n">
-        <v>594836.2213287224</v>
+        <v>595148.8626576435</v>
       </c>
       <c r="H6" t="n">
-        <v>594836.2213287225</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="I6" t="n">
-        <v>594836.2213287225</v>
+        <v>595148.862657644</v>
       </c>
       <c r="J6" t="n">
-        <v>427231.0435187399</v>
+        <v>427543.6848476607</v>
       </c>
       <c r="K6" t="n">
-        <v>545726.1286226676</v>
+        <v>546038.7699515895</v>
       </c>
       <c r="L6" t="n">
-        <v>594836.2213287225</v>
+        <v>595148.8626576437</v>
       </c>
       <c r="M6" t="n">
-        <v>509781.1933932106</v>
+        <v>510093.8347221316</v>
       </c>
       <c r="N6" t="n">
-        <v>594836.2213287227</v>
+        <v>595148.862657644</v>
       </c>
       <c r="O6" t="n">
-        <v>594836.2213287227</v>
+        <v>595148.8626576441</v>
       </c>
       <c r="P6" t="n">
-        <v>594836.2213287225</v>
+        <v>595148.8626576439</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>155.711808475759</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>113.4111320573938</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>60.17901073767614</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>80.85095794181412</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>49.98750138605962</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>331.8898480104188</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>349.8910368433336</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>83.32522828944178</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>190.041823590339</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>130.7425710226873</v>
       </c>
       <c r="H8" t="n">
-        <v>21.55480923451</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02872873825328</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>42.02872873825343</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.441247700829989e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>175.9603676659989</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32560,7 +32560,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578897</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34365,13 +34365,13 @@
         <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162559</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>560.258679069875</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.97859357997743</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587134</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
         <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
